--- a/seguimiento.xlsx
+++ b/seguimiento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">ESPECIES</t>
   </si>
@@ -68,6 +68,291 @@
     <t xml:space="preserve">Pleurodema marmorata</t>
   </si>
   <si>
+    <t xml:space="preserve">Actitis macularius (A. macularia*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas cyanoptera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas puna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthus lutescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aphriza virgata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardenna bulleri (Puffinus bulleri*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardenna creatopus (Puffinus creatopus*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardenna grisea (Puffinus griseus*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arenaria interpres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asthenes sclateri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubulcus ibis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burhinus superciliaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris bairdii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris fuscicollis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris mauri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris melanotos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris minutilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris pusilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaetura pelagica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charadrius alticola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charadrius collaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charadrius modestus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charadrius nivosus (C. alexandrinus*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charadrius semipalmatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlidonias niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinclodes fuscus (Cinclodes fuscus fuscus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinclodes taczanowskii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columba livia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conirostrum tamarugense </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daption capense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diuca speculifera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulmarus glacialoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himantopus melanurus(a)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirundo rustica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixobrychus exilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucophaeus atricilla (Larus atricilla*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucophaeus modestus (Larus modestus*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucophaeus pipixcan (Larus pipixcan*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limosa haemastica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limnodromus griseus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macronectes giganteus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macronectes halli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallura phoebe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscisaxicola cinereus (M. cinerea*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscisaxicola flavinucha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscisaxicola maclovianus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanites oceanicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanodroma hornbyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanodroma markhami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oreomanes fraseri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxyura jamaicensis (O. ferruginea*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachyptila desolata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandion haliaetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passer domesticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrochelidon rufocollaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalacrocorax bougainvillii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalacrocorax brasilianus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalaropus lobatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalaropus tricolor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalcoboenus megalopterus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenicoparrus andinus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenicoparrus jamesi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrygilus alaudinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrygilus erythronotus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrygilus fruticeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrygilus plebejus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrygilus unicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipraeidea bonariensis (Thraupis bonariensis*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluvialis dominica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluvialis squatarola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polioxolmis rufipennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poospiza hispaniolensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procellaria aequinoctialis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psittacara wagleri (Aratinga wagleri*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparia riparia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rynchops niger (Rhynchops niger**)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporophila simplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stercorarius chilensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stercorarius parasiticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stercorarius pomarinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterna hirundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterna paradisaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturnella bellicosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sula dactylatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassarche melanophrys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassarche salvini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalasseus elegans (Sterna elegans*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tringa flavipes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tringa melanoleuca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tringa semipalmatus (Catoptrophorus semipalmatus*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tringa solitaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troglodytes aedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tryngites subruficollis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyto alba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ephedra americana Humb. &amp; Bonpl. ex Willd.</t>
   </si>
   <si>
@@ -77,94 +362,25 @@
     <t xml:space="preserve">Bomarea dulcis (Hook.) Beauverd</t>
   </si>
   <si>
-    <t xml:space="preserve">Lemna minuta Kunth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tillandsia capillaris var. capillaris Ruiz &amp; Pav.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tillandsia geissei Phil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillandsia purpurea Ruiz &amp; Pav.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillandsia werdermannii Harms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distichia muscoides Nees &amp; Meyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxychloe andina Phil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elodea potamogeton (Bertero) Espinosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthochloa lepidula Nees &amp; Meyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristida adscensionis L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arundo donax L.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bromus catharticus Vahl</t>
   </si>
   <si>
-    <t xml:space="preserve">Cenchrus echinatus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortaderia jubata (Lemoine) Stapf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cymbopogon citratus (DC.) Stapf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynodon dactylon (L.) Pers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distichlis spicata (L.) Greene</t>
-  </si>
-  <si>
     <t xml:space="preserve">Festuca orthophylla Pilg.</t>
   </si>
   <si>
-    <t xml:space="preserve">Phragmites australis (Cav.) Trin. ex Steud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarava ichu (Stipa ichu) (Ruiz &amp; Pav.) Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloe vera  (L.) Burm. f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesuvium portulacastrum (L.) L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera halimifolia (Lam.) Standl. ex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dysphania ambrioides (Chenopodium ambrosioides*)  L. </t>
   </si>
   <si>
-    <t xml:space="preserve">Haplorhus peruviana Engl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achyrocline alata (Kunth) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baccharis boliviensis (Wedd.) Cabrera</t>
+    <t xml:space="preserve">Acanthoxanthium spinosum (L.) Fourr.</t>
   </si>
   <si>
     <t xml:space="preserve">Baccharis incarum (Wedd.) Cuatrec</t>
   </si>
   <si>
-    <t xml:space="preserve">Baccharis peruviana Cuatrec.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bidens andicola var. andicola Kunth</t>
+    <t xml:space="preserve">Baccharis petiolata DC</t>
   </si>
   <si>
     <t xml:space="preserve">Bidens pilosa var pilosa (DC.) Sherff</t>
@@ -173,174 +389,72 @@
     <t xml:space="preserve">Chersodoma jodopappa Cabrera</t>
   </si>
   <si>
-    <t xml:space="preserve">Diplostephium meyenii (Sch. Bip. ex Wedd.) S.F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flaveria bidentis (L.) Kuntze</t>
+    <t xml:space="preserve">Chuquiraga rotundifolia Wedd.</t>
   </si>
   <si>
     <t xml:space="preserve">Gnaphalium dombeyanum DC.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grindelia glutinosa (Cav.) Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grindelia tarapacana Phil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutisia acuminata var. bicolor Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutisia acuminata var. hirsuta (Meyen) Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parastrephia lepidophylla (Wedd.) Cabrera</t>
+    <t xml:space="preserve">Matricaria recutita L.</t>
   </si>
   <si>
     <t xml:space="preserve">Parastrephia lucida (Meyen) Cabrera</t>
   </si>
   <si>
-    <t xml:space="preserve">Parastrephia quadrangularis (Meyen) Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pluchea chingoyo (Kunth) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proustia berberidifolia (Cuatrec.) Ferreyra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tagetes multiflora Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tessaria integrifolia Ruiz &amp; Pav.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xenophyllum poposum (Phil.) V.A.Funk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiquilia paronychioides (Phil.) A.T. Richardson</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brassica rapa subsp. campestris (L.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Austrocylindropuntia subulata (Muehlenpf.) Backeb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browningia candelaris (Meyen) Britton &amp; Rose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cleistocactus sextonianus (Backeb.) D.R. Hunt</t>
   </si>
   <si>
-    <t xml:space="preserve">Corryocactus brachypetalus (Vaupel) Britton &amp; Rose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corryocactus brevistylus (K. Schum. ex Vaupel) Britton &amp; Rose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eriosyce islayensis (Foerster) Katt.</t>
   </si>
   <si>
-    <t xml:space="preserve">Haageocereus platinospinus (Werderm. &amp; Backeb.) Backeb.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neoraimondia arequipensis Backeb.</t>
   </si>
   <si>
-    <t xml:space="preserve">Opuntia ficus-indica (L.) Mill.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Opuntia ignescens Vaupel</t>
   </si>
   <si>
-    <t xml:space="preserve">Oreocereus leucotrichus (Phil.) Wagenkn.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tunilla soehrensii (Britton &amp; Rose) D.R. Hunt &amp; Iliff</t>
   </si>
   <si>
-    <t xml:space="preserve">Calceolaria inamoena subsp inamoena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calceolaria inamoena Kraenzl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasconcellea candicans (A. Gray) (Carica candicans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arenaria serpens Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pycnophyllum molle Remy</t>
+    <t xml:space="preserve">Hypsela reniformis (Kunth) C.Presl</t>
   </si>
   <si>
     <t xml:space="preserve">Casuarina equisetifolia J.R. Forst. &amp; G. Forst.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escallonia angustifolia C. Presl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vachellia aroma (Acacia aroma)Gillies ex Hook. &amp; Arn.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vachellia huarango (Acacia huarango) Ruiz ex J.F. Macbr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vachellia macracantha Humb. &amp; Bonpl. ex Willd. (Acacia macracantha)</t>
   </si>
   <si>
     <t xml:space="preserve">Vachellia visco (Acacia visco) Lorentz ex Griseb.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adesmia spinosissima Meyen ex Vogel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tara spinosa Feuillée ex Molina (Caesalpinia spinosa Kuntze)</t>
   </si>
   <si>
-    <t xml:space="preserve">Geoffroea decorticans (Gillies ex Hook. &amp; Arn.) Burkart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leucaena leucocephala (Lam.) de Wit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lupinus pinguis Ulbr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicago polymorpha L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melilotus albus Medik.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otholobium pubescens (Poir.)J.W. Grimes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkinsonia aculeata L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prosopis chilensis (Molina) Stuntz</t>
   </si>
   <si>
     <t xml:space="preserve">Prosopis pallida (Humb. &amp; Bonpl. ex Willd.) Kunth</t>
   </si>
   <si>
-    <t xml:space="preserve">Spartium junceum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krameria lappacea (Dombey) Burdet &amp; B.B. Simpson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentha aquatica L. (piperita)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origanum vulgare L.</t>
+    <t xml:space="preserve">Myriophyllum elatinoides Gaudich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myriophyllum quitense Kunth</t>
   </si>
   <si>
     <t xml:space="preserve">Satureja boliviana (Benth.) Briq.</t>
   </si>
   <si>
+    <t xml:space="preserve">Satureja parvifolia (Phil.) Epling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caiophora pentlandii (Paxton ex Graham) G. Don ex Loudon</t>
   </si>
   <si>
@@ -350,106 +464,31 @@
     <t xml:space="preserve">Caiophora superba Phil.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ligaria cuneifolia (Ruiz &amp; Pav.) Tiegh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gossypium barbadense L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eucalyptus camaldulensis Dehnh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oenothera rosea L'Hér. ex Aiton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argemone subfusiformis G.B. Ownbey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malesherbia turbinea J.F. Macbr</t>
+    <t xml:space="preserve">Tarasa operculata (Cav.) Krapov</t>
   </si>
   <si>
     <t xml:space="preserve">Mimulus glabratus Kunth</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacopa monnieri (L.) Edwall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantago lanceolata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantago major L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantua buxifolia Juss. ex Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muehlenbeckia hastulata (Sm.) I.M. Johnst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rumex cuneifolius Campd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemilla diplophylla Diels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kageneckia lanceolata Ruiz &amp; Pav.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Polylepis rugulosa Bitter</t>
   </si>
   <si>
-    <t xml:space="preserve">Polylepis tarapacana Phil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetraglochin cristatum (Britton) Rothm.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Populus nigra  L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Azolla filiculoides Lam.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buddleja coriacea Remy</t>
   </si>
   <si>
-    <t xml:space="preserve">Cestrum auriculatum L'Hér.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datura stramonium L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunalia spinosa (Meyen) Dammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabiana stephanii Hunz. &amp; Barboza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lycopersicon chilense Dunal</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicotiana glauca Graham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotiana paniculata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nolana adansonii (Roem. &amp;Schult.) I.M. Johnst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nolana jaffuelii I.M. Johnst.</t>
+    <t xml:space="preserve">Aloysia triphylla Royle</t>
   </si>
   <si>
     <t xml:space="preserve">Lippia nodiflora (L.) Michx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinus radiata D. Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equisetum giganteum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thelypteris cheilanthoides (Kunze) Proctor</t>
+    <t xml:space="preserve">Cupressus sempervirens L.</t>
   </si>
   <si>
     <t xml:space="preserve">Epecia Nueva</t>
@@ -2103,6 +2142,123 @@
         <v>1</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147"/>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148"/>
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149"/>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150"/>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151"/>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152"/>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153"/>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154"/>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155"/>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156"/>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157"/>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158"/>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159"/>
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/seguimiento.xlsx
+++ b/seguimiento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">ESPECIES</t>
   </si>
@@ -23,7 +23,10 @@
     <t xml:space="preserve">en_df2</t>
   </si>
   <si>
-    <t xml:space="preserve">Liolaemus basadrei</t>
+    <t xml:space="preserve">Liolaemus tacnae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liolaemus signifer</t>
   </si>
   <si>
     <t xml:space="preserve">Liolaemus poconchilensis</t>
@@ -35,9 +38,15 @@
     <t xml:space="preserve">Liolaemus pleopholis</t>
   </si>
   <si>
+    <t xml:space="preserve">Liolaemus sp.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microlophus peruvianus</t>
   </si>
   <si>
+    <t xml:space="preserve">Microlophus tigris</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microlophus yanezi</t>
   </si>
   <si>
@@ -47,6 +56,9 @@
     <t xml:space="preserve">Phyllodactylus gerrhopygus </t>
   </si>
   <si>
+    <t xml:space="preserve">Phyllodactylus sp.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tachymenis peruviana</t>
   </si>
   <si>
@@ -66,6 +78,21 @@
   </si>
   <si>
     <t xml:space="preserve">Pleurodema marmorata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrothrix andinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delphinus delphis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myotis atacamensis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phocoena spinipinnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tursiops truncatus</t>
   </si>
   <si>
     <t xml:space="preserve">Actitis macularius (A. macularia*)</t>
@@ -2259,6 +2286,87 @@
         <v>1</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160"/>
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161"/>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162"/>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163"/>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164"/>
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165"/>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166"/>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167"/>
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168"/>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
